--- a/resources/experiment 1/metrics/R2/incidence/Fallo Cardiaco (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Fallo Cardiaco (INC).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.7197981723822687</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.7197981723822685</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.7197981723822687</v>
-      </c>
       <c r="D2" t="n">
-        <v>0.7197981723822687</v>
+        <v>0.7197981723822685</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8434280751202329</v>
+        <v>0.8018740369043749</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8434276770741009</v>
+        <v>0.8038680273191195</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8434276770741009</v>
+        <v>0.7632364624274045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9030705478147877</v>
+        <v>0.6914186911079988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9030705478147877</v>
+        <v>0.7413077050888451</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9030705478147877</v>
+        <v>0.7189133595540097</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8211575692197913</v>
+        <v>0.6739552204525249</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8211270783684594</v>
+        <v>0.8274687929408925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8211270783684594</v>
+        <v>0.7194445644284359</v>
       </c>
     </row>
   </sheetData>
